--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://generixgrouponline-my.sharepoint.com/personal/icastro_generixgroup_com/Documents/Documentos/WORKSPACE/CREA Y CRECE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{010EF652-DD21-44E7-ABE9-A00A0A7ADC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE44059-87B8-40D8-88CC-4E2279228ED8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEB6CC-6622-4DE7-A3BC-DB0AF61F0C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="595">
   <si>
     <t>JSON</t>
   </si>
@@ -1802,6 +1802,57 @@
   </si>
   <si>
     <t>InvoiceIssueDate</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.</t>
+  </si>
+  <si>
+    <t>Extensions</t>
+  </si>
+  <si>
+    <t>Extensiones. Podrán incorporarse nuevas definiciones estructuradas cuando sean de interés conjunto para emisores y receptores, y no estén ya definidas en el esquema de la factura.</t>
+  </si>
+  <si>
+    <t>ExtensionsType</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.2.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.</t>
+  </si>
+  <si>
+    <t>LineHeader</t>
+  </si>
+  <si>
+    <t>LineFooter</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.1.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.2.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.3.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.4.</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.5.</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto de Pie de Linea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto de Cabecera de Linea </t>
   </si>
 </sst>
 </file>
@@ -2683,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2692,16 +2743,16 @@
     <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="28" customWidth="1"/>
     <col min="3" max="3" width="25.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="88" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="15" style="18" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="29" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="30" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="22" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
@@ -3207,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4BC373-9472-45A7-8E38-AC686175D042}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4421,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -4430,10 +4481,10 @@
     <col min="1" max="1" width="4.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="12" style="23" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="98.5703125" style="45" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="23" customWidth="1"/>
     <col min="6" max="7" width="11.5703125" style="46"/>
-    <col min="8" max="8" width="39.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="59" style="23" customWidth="1"/>
     <col min="9" max="16384" width="11.5703125" style="23"/>
   </cols>
   <sheetData>
@@ -6161,10 +6212,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6176,7 +6227,7 @@
     <col min="5" max="5" width="18.28515625" style="51" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="1"/>
     <col min="7" max="7" width="11.5703125" style="1"/>
-    <col min="8" max="8" width="53.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="33" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="34"/>
   </cols>
   <sheetData>
@@ -8261,236 +8312,236 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39" t="s">
+    <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G96" s="39" t="s">
+      <c r="G96" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H96" s="38" t="s">
-        <v>164</v>
+      <c r="H96" s="16" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>107</v>
+        <v>585</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>320</v>
+        <v>594</v>
       </c>
       <c r="E97" s="26"/>
-      <c r="F97" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>130</v>
+      <c r="F97" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>321</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>108</v>
+        <v>586</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>322</v>
+        <v>593</v>
       </c>
       <c r="E98" s="26"/>
-      <c r="F98" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>130</v>
+      <c r="F98" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G98" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>247</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" s="43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G100" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="17"/>
+      <c r="F100" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>328</v>
+        <v>588</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G101" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H101" s="43" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="G102" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H102" s="16" t="s">
-        <v>330</v>
+        <v>589</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G102" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="17"/>
+      <c r="F103" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G103" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" s="43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" s="17"/>
+      <c r="F104" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C105" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G105" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H103" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G104" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H104" s="38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
@@ -8500,43 +8551,43 @@
         <v>130</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E108" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
         <v>132</v>
       </c>
@@ -8544,41 +8595,41 @@
         <v>130</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
@@ -8588,19 +8639,19 @@
         <v>142</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26" t="s">
@@ -8610,6 +8661,204 @@
         <v>130</v>
       </c>
       <c r="H111" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="37"/>
+      <c r="B113" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C113" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G113" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H115" s="16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H120" s="16" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8623,21 +8872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -8781,24 +9015,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8814,4 +9046,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CEB6CC-6622-4DE7-A3BC-DB0AF61F0C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D05EA8D-4B9F-4C78-A9F5-A3CB651125D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="599">
   <si>
     <t>JSON</t>
   </si>
@@ -1314,21 +1314,6 @@
     <t>2.1.1.4.2.</t>
   </si>
   <si>
-    <t>2.1.1.4.3.1.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.2.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.3.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.4.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.3.5.</t>
-  </si>
-  <si>
     <t>2.1.2.1.</t>
   </si>
   <si>
@@ -1672,24 +1657,6 @@
   </si>
   <si>
     <t>2.2.5.1.15.</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.1</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.2</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.3</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.4</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.5</t>
-  </si>
-  <si>
-    <t>2.1.1.4.2.6</t>
   </si>
   <si>
     <t>2.1.1.4.3.</t>
@@ -1783,9 +1750,6 @@
     <t>2.2.1.4.7.</t>
   </si>
   <si>
-    <t>2.1.1.4.2.7</t>
-  </si>
-  <si>
     <t>ReasonCode</t>
   </si>
   <si>
@@ -1853,6 +1817,54 @@
   </si>
   <si>
     <t xml:space="preserve">Texto de Cabecera de Linea </t>
+  </si>
+  <si>
+    <t>LineAddress</t>
+  </si>
+  <si>
+    <t>Nombre Comercial.</t>
+  </si>
+  <si>
+    <t>TradeName</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.1</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.2</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.3</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.4</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.5</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.6</t>
+  </si>
+  <si>
+    <t>2.1.1.4.3.7</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.1.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.2.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.3.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.4.</t>
+  </si>
+  <si>
+    <t>2.1.1.4.5.5.</t>
   </si>
 </sst>
 </file>
@@ -2734,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -2846,7 +2858,7 @@
       </c>
       <c r="H6" s="29"/>
     </row>
-    <row r="7" spans="1:9" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="15" t="s">
         <v>347</v>
@@ -4470,10 +4482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5068,32 +5080,32 @@
         <v>414</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="14"/>
+        <v>585</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="E29" s="17"/>
       <c r="F29" s="26" t="s">
         <v>141</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>184</v>
+      <c r="H29" s="43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="26" t="s">
@@ -5109,13 +5121,13 @@
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="26" t="s">
@@ -5131,13 +5143,13 @@
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="26" t="s">
@@ -5153,13 +5165,13 @@
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="26" t="s">
@@ -5175,13 +5187,13 @@
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="26" t="s">
@@ -5197,13 +5209,13 @@
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="26" t="s">
@@ -5219,13 +5231,13 @@
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="26" t="s">
@@ -5241,35 +5253,35 @@
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>192</v>
+        <v>20</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>415</v>
+        <v>531</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="44" t="s">
@@ -5279,19 +5291,19 @@
         <v>130</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>416</v>
+        <v>532</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="44" t="s">
@@ -5301,19 +5313,19 @@
         <v>130</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="44" t="s">
@@ -5323,19 +5335,19 @@
         <v>130</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
-        <v>418</v>
+        <v>534</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="44" t="s">
@@ -5345,19 +5357,19 @@
         <v>130</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>419</v>
+        <v>535</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="44" t="s">
@@ -5367,41 +5379,41 @@
         <v>130</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="E43" s="17"/>
       <c r="F43" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="44" t="s">
@@ -5411,19 +5423,19 @@
         <v>142</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="44" t="s">
@@ -5439,13 +5451,13 @@
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="44" t="s">
@@ -5455,19 +5467,19 @@
         <v>142</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="44" t="s">
@@ -5483,13 +5495,13 @@
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="17"/>
       <c r="F48" s="44" t="s">
@@ -5499,79 +5511,79 @@
         <v>142</v>
       </c>
       <c r="H48" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="43" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10" t="s">
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D51" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F51" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G51" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="21" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E52" s="16"/>
       <c r="F52" s="44" t="s">
@@ -5581,19 +5593,19 @@
         <v>130</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="21" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="44" t="s">
@@ -5603,19 +5615,19 @@
         <v>130</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="21" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="44" t="s">
@@ -5625,19 +5637,19 @@
         <v>130</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="44" t="s">
@@ -5647,41 +5659,41 @@
         <v>130</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="21" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="21" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="44" t="s">
@@ -5691,19 +5703,19 @@
         <v>142</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16"/>
       <c r="B58" s="21" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="44" t="s">
@@ -5713,19 +5725,19 @@
         <v>142</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="21" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="44" t="s">
@@ -5735,41 +5747,41 @@
         <v>142</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="84" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="21" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G60" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="43" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="44" t="s">
@@ -5779,19 +5791,19 @@
         <v>130</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16"/>
       <c r="B62" s="21" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="44" t="s">
@@ -5801,19 +5813,19 @@
         <v>130</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="21" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="44" t="s">
@@ -5823,19 +5835,19 @@
         <v>130</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="21" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="44" t="s">
@@ -5845,19 +5857,19 @@
         <v>130</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="21" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="44" t="s">
@@ -5867,63 +5879,63 @@
         <v>130</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16"/>
       <c r="B66" s="21" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>238</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G66" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="21" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>177</v>
+        <v>48</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="44" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G67" s="44" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>178</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="21" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="44" t="s">
@@ -5933,19 +5945,19 @@
         <v>130</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="21" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="44" t="s">
@@ -5955,19 +5967,19 @@
         <v>130</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="44" t="s">
@@ -5977,19 +5989,19 @@
         <v>130</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="44" t="s">
@@ -5999,19 +6011,19 @@
         <v>130</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="21" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="44" t="s">
@@ -6021,19 +6033,19 @@
         <v>130</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="21" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="44" t="s">
@@ -6043,19 +6055,19 @@
         <v>130</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16"/>
       <c r="B74" s="21" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="44" t="s">
@@ -6065,41 +6077,41 @@
         <v>130</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="17"/>
+        <v>238</v>
+      </c>
+      <c r="E75" s="16"/>
       <c r="F75" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="21" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E76" s="17"/>
       <c r="F76" s="44" t="s">
@@ -6109,19 +6121,19 @@
         <v>142</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="44" t="s">
@@ -6137,13 +6149,13 @@
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16"/>
       <c r="B78" s="21" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="44" t="s">
@@ -6153,19 +6165,19 @@
         <v>142</v>
       </c>
       <c r="H78" s="43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16"/>
       <c r="B79" s="21" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="44" t="s">
@@ -6181,13 +6193,13 @@
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="44" t="s">
@@ -6197,6 +6209,28 @@
         <v>142</v>
       </c>
       <c r="H80" s="43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" s="43" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6394,7 +6428,7 @@
     <row r="10" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>52</v>
@@ -6416,7 +6450,7 @@
     <row r="11" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>53</v>
@@ -6438,7 +6472,7 @@
     <row r="12" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>54</v>
@@ -6460,13 +6494,13 @@
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -6476,19 +6510,19 @@
         <v>142</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
@@ -6504,13 +6538,13 @@
     <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
@@ -6520,19 +6554,19 @@
         <v>130</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
@@ -6542,19 +6576,19 @@
         <v>130</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
@@ -6570,7 +6604,7 @@
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>58</v>
@@ -6592,7 +6626,7 @@
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>59</v>
@@ -6614,13 +6648,13 @@
     <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
@@ -6630,19 +6664,19 @@
         <v>130</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
@@ -6652,19 +6686,19 @@
         <v>130</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
@@ -6674,7 +6708,7 @@
         <v>142</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6702,7 +6736,7 @@
     <row r="24" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>56</v>
@@ -6724,7 +6758,7 @@
     <row r="25" spans="1:8" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>57</v>
@@ -6746,7 +6780,7 @@
     <row r="26" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>58</v>
@@ -6768,7 +6802,7 @@
     <row r="27" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>59</v>
@@ -6790,7 +6824,7 @@
     <row r="28" spans="1:8" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>40</v>
@@ -6812,7 +6846,7 @@
     <row r="29" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>60</v>
@@ -6834,7 +6868,7 @@
     <row r="30" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>61</v>
@@ -6876,7 +6910,7 @@
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>63</v>
@@ -6898,7 +6932,7 @@
     <row r="33" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>64</v>
@@ -6920,7 +6954,7 @@
     <row r="34" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>65</v>
@@ -6944,7 +6978,7 @@
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>66</v>
@@ -6966,7 +7000,7 @@
     <row r="36" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>37</v>
@@ -6990,7 +7024,7 @@
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>67</v>
@@ -7012,7 +7046,7 @@
     <row r="38" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>37</v>
@@ -7058,7 +7092,7 @@
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>69</v>
@@ -7082,7 +7116,7 @@
     <row r="41" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>70</v>
@@ -7104,7 +7138,7 @@
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>71</v>
@@ -7126,7 +7160,7 @@
     <row r="43" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>72</v>
@@ -7148,7 +7182,7 @@
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>73</v>
@@ -7170,7 +7204,7 @@
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>74</v>
@@ -7192,7 +7226,7 @@
     <row r="46" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>75</v>
@@ -7214,7 +7248,7 @@
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>76</v>
@@ -7236,7 +7270,7 @@
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>77</v>
@@ -7258,7 +7292,7 @@
     <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>78</v>
@@ -7280,7 +7314,7 @@
     <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>79</v>
@@ -7302,7 +7336,7 @@
     <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>80</v>
@@ -7324,7 +7358,7 @@
     <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>81</v>
@@ -7346,7 +7380,7 @@
     <row r="53" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>82</v>
@@ -7370,7 +7404,7 @@
     <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>83</v>
@@ -7394,7 +7428,7 @@
     <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>84</v>
@@ -7418,7 +7452,7 @@
     <row r="56" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>85</v>
@@ -7442,7 +7476,7 @@
     <row r="57" spans="1:9" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>38</v>
@@ -7466,7 +7500,7 @@
     <row r="58" spans="1:9" s="35" customFormat="1" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>39</v>
@@ -7513,7 +7547,7 @@
     <row r="60" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>87</v>
@@ -7535,7 +7569,7 @@
     <row r="61" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>88</v>
@@ -7557,7 +7591,7 @@
     <row r="62" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>89</v>
@@ -7579,7 +7613,7 @@
     <row r="63" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>90</v>
@@ -7601,7 +7635,7 @@
     <row r="64" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>91</v>
@@ -7623,7 +7657,7 @@
     <row r="65" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>92</v>
@@ -7645,7 +7679,7 @@
     <row r="66" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>93</v>
@@ -7667,7 +7701,7 @@
     <row r="67" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>94</v>
@@ -7689,7 +7723,7 @@
     <row r="68" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>95</v>
@@ -7711,7 +7745,7 @@
     <row r="69" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>96</v>
@@ -7733,7 +7767,7 @@
     <row r="70" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>97</v>
@@ -7755,7 +7789,7 @@
     <row r="71" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>98</v>
@@ -7779,7 +7813,7 @@
     <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>99</v>
@@ -7803,7 +7837,7 @@
     <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>100</v>
@@ -7825,7 +7859,7 @@
     <row r="74" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>71</v>
@@ -7847,7 +7881,7 @@
     <row r="75" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>101</v>
@@ -7869,7 +7903,7 @@
     <row r="76" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>73</v>
@@ -7891,7 +7925,7 @@
     <row r="77" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>74</v>
@@ -7913,7 +7947,7 @@
     <row r="78" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>102</v>
@@ -7935,7 +7969,7 @@
     <row r="79" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>76</v>
@@ -7957,7 +7991,7 @@
     <row r="80" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="15" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>77</v>
@@ -7979,7 +8013,7 @@
     <row r="81" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="15" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>78</v>
@@ -8001,7 +8035,7 @@
     <row r="82" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="15" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>79</v>
@@ -8023,7 +8057,7 @@
     <row r="83" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="15" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>103</v>
@@ -8047,7 +8081,7 @@
     <row r="84" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>62</v>
@@ -8067,7 +8101,7 @@
     <row r="85" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15"/>
       <c r="B85" s="15" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>63</v>
@@ -8089,7 +8123,7 @@
     <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>64</v>
@@ -8111,7 +8145,7 @@
     <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>65</v>
@@ -8135,7 +8169,7 @@
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>66</v>
@@ -8157,7 +8191,7 @@
     <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>37</v>
@@ -8181,7 +8215,7 @@
     <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>67</v>
@@ -8203,7 +8237,7 @@
     <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>37</v>
@@ -8227,7 +8261,7 @@
     <row r="92" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>104</v>
@@ -8249,7 +8283,7 @@
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
@@ -8271,7 +8305,7 @@
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
@@ -8293,7 +8327,7 @@
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>105</v>
@@ -8315,13 +8349,13 @@
     <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26" t="s">
@@ -8331,19 +8365,19 @@
         <v>142</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="44" t="s">
@@ -8353,19 +8387,19 @@
         <v>142</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E98" s="26"/>
       <c r="F98" s="44" t="s">
@@ -8375,16 +8409,16 @@
         <v>142</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>21</v>
+        <v>583</v>
       </c>
       <c r="D99" s="43" t="s">
         <v>237</v>
@@ -8403,7 +8437,7 @@
     <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C100" s="20" t="s">
         <v>22</v>
@@ -8425,7 +8459,7 @@
     <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C101" s="20" t="s">
         <v>23</v>
@@ -8447,7 +8481,7 @@
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C102" s="20" t="s">
         <v>24</v>
@@ -8469,7 +8503,7 @@
     <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C103" s="20" t="s">
         <v>25</v>
@@ -8491,7 +8525,7 @@
     <row r="104" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C104" s="20" t="s">
         <v>26</v>
@@ -8535,7 +8569,7 @@
     <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C106" s="15" t="s">
         <v>107</v>
@@ -8557,7 +8591,7 @@
     <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>108</v>
@@ -8579,7 +8613,7 @@
     <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C108" s="15" t="s">
         <v>109</v>
@@ -8601,7 +8635,7 @@
     <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>110</v>
@@ -8623,7 +8657,7 @@
     <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>111</v>
@@ -8645,7 +8679,7 @@
     <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>112</v>
@@ -8667,7 +8701,7 @@
     <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="15" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>113</v>
@@ -8711,7 +8745,7 @@
     <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>115</v>
@@ -8733,7 +8767,7 @@
     <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>116</v>
@@ -8755,7 +8789,7 @@
     <row r="116" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>117</v>
@@ -8777,7 +8811,7 @@
     <row r="117" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>118</v>
@@ -8799,7 +8833,7 @@
     <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>119</v>
@@ -8821,7 +8855,7 @@
     <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>120</v>
@@ -8843,7 +8877,7 @@
     <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>121</v>
@@ -8872,6 +8906,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -9015,22 +9064,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9046,21 +9097,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Guia_Api_Facturas_Generix.xlsx
+++ b/Guia_Api_Facturas_Generix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\layuso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D05EA8D-4B9F-4C78-A9F5-A3CB651125D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED31407-6595-4F0D-AFCF-B2C379325484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="613">
   <si>
     <t>JSON</t>
   </si>
@@ -1614,24 +1614,6 @@
     <t>2.2.7.1.</t>
   </si>
   <si>
-    <t>2.2.7.1.1.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.1.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.2.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.3.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.4.</t>
-  </si>
-  <si>
-    <t>2.2.7.1.1.5.</t>
-  </si>
-  <si>
     <t>2.2.5.1.13.1.1.</t>
   </si>
   <si>
@@ -1780,21 +1762,9 @@
     <t>ExtensionsType</t>
   </si>
   <si>
-    <t>2.2.5.1.16.1.</t>
-  </si>
-  <si>
-    <t>2.2.5.1.16.2.</t>
-  </si>
-  <si>
     <t>2.2.5.1.16.3.</t>
   </si>
   <si>
-    <t>LineHeader</t>
-  </si>
-  <si>
-    <t>LineFooter</t>
-  </si>
-  <si>
     <t>2.2.5.1.16.3.1.</t>
   </si>
   <si>
@@ -1865,6 +1835,79 @@
   </si>
   <si>
     <t>2.1.1.4.5.5.</t>
+  </si>
+  <si>
+    <t>[0..*]</t>
+  </si>
+  <si>
+    <t>TextMax80Type string positions: 0-79</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>2.2.5.1.16.3.6.</t>
+  </si>
+  <si>
+    <t>HeaderDescription</t>
+  </si>
+  <si>
+    <t>FooterDescription</t>
+  </si>
+  <si>
+    <t>LegalLiterals</t>
+  </si>
+  <si>
+    <t>Literales legales.</t>
+  </si>
+  <si>
+    <t>LegalReference</t>
+  </si>
+  <si>
+    <t>Textos literales que deben figurar obligatoriamete en determinadas facturas. Para más información, leer la documentación.</t>
+  </si>
+  <si>
+    <t>TextMax250Type string positions: 0-
+250</t>
+  </si>
+  <si>
+    <t>LegalLiteralsType</t>
+  </si>
+  <si>
+    <t>2.2.8.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.2.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.3.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.4.</t>
+  </si>
+  <si>
+    <t>2.2.8.1.1.5.</t>
+  </si>
+  <si>
+    <t>2.2.8.2.</t>
+  </si>
+  <si>
+    <t>2.2.8.2.1.</t>
+  </si>
+  <si>
+    <t>2.2.8.2.2.</t>
   </si>
 </sst>
 </file>
@@ -2746,7 +2789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
@@ -4484,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B13C99-BA63-4783-81FE-9F858A27BFD2}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5080,10 +5123,10 @@
         <v>414</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="26" t="s">
@@ -5099,7 +5142,7 @@
     <row r="30" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>13</v>
@@ -5121,7 +5164,7 @@
     <row r="31" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="20" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>14</v>
@@ -5143,7 +5186,7 @@
     <row r="32" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="20" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>15</v>
@@ -5165,7 +5208,7 @@
     <row r="33" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="20" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>16</v>
@@ -5187,7 +5230,7 @@
     <row r="34" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="20" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>17</v>
@@ -5209,7 +5252,7 @@
     <row r="35" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="20" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>18</v>
@@ -5231,7 +5274,7 @@
     <row r="36" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>19</v>
@@ -5253,7 +5296,7 @@
     <row r="37" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="20" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>20</v>
@@ -5275,7 +5318,7 @@
     <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>21</v>
@@ -5297,7 +5340,7 @@
     <row r="39" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="20" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>22</v>
@@ -5319,7 +5362,7 @@
     <row r="40" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>23</v>
@@ -5341,7 +5384,7 @@
     <row r="41" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="20" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>24</v>
@@ -5363,7 +5406,7 @@
     <row r="42" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>25</v>
@@ -5385,7 +5428,7 @@
     <row r="43" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>26</v>
@@ -5407,7 +5450,7 @@
     <row r="44" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="20" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>27</v>
@@ -5429,7 +5472,7 @@
     <row r="45" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>28</v>
@@ -5451,7 +5494,7 @@
     <row r="46" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>29</v>
@@ -5473,7 +5516,7 @@
     <row r="47" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="20" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>30</v>
@@ -5495,7 +5538,7 @@
     <row r="48" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="20" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>31</v>
@@ -5517,7 +5560,7 @@
     <row r="49" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="20" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>32</v>
@@ -6246,7 +6289,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25333C4E-FCEB-4BCB-A95F-5DF88E54B42A}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
@@ -6494,13 +6537,13 @@
     <row r="13" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
@@ -6510,19 +6553,19 @@
         <v>142</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26" t="s">
@@ -6538,13 +6581,13 @@
     <row r="15" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
@@ -6554,19 +6597,19 @@
         <v>130</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="26" t="s">
@@ -6576,19 +6619,19 @@
         <v>130</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
@@ -6604,7 +6647,7 @@
     <row r="18" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>58</v>
@@ -6626,7 +6669,7 @@
     <row r="19" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>59</v>
@@ -6648,13 +6691,13 @@
     <row r="20" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>563</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
@@ -6664,19 +6707,19 @@
         <v>130</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>564</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
@@ -6686,19 +6729,19 @@
         <v>130</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>565</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
@@ -6708,7 +6751,7 @@
         <v>142</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8123,7 +8166,7 @@
     <row r="86" spans="1:8" ht="108" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
       <c r="B86" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>64</v>
@@ -8145,7 +8188,7 @@
     <row r="87" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>65</v>
@@ -8169,7 +8212,7 @@
     <row r="88" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
       <c r="B88" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>66</v>
@@ -8191,7 +8234,7 @@
     <row r="89" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>37</v>
@@ -8215,7 +8258,7 @@
     <row r="90" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>67</v>
@@ -8237,7 +8280,7 @@
     <row r="91" spans="1:8" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>37</v>
@@ -8283,7 +8326,7 @@
     <row r="93" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>58</v>
@@ -8305,7 +8348,7 @@
     <row r="94" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>59</v>
@@ -8327,7 +8370,7 @@
     <row r="95" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="15" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>105</v>
@@ -8349,13 +8392,13 @@
     <row r="96" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26" t="s">
@@ -8365,85 +8408,85 @@
         <v>142</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="C97" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C97" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E97" s="26"/>
+      <c r="D97" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E97" s="17"/>
       <c r="F97" s="44" t="s">
-        <v>141</v>
+        <v>589</v>
       </c>
       <c r="G97" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="H97" s="16" t="s">
-        <v>580</v>
+      <c r="H97" s="43" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E98" s="26"/>
+        <v>565</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="17"/>
       <c r="F98" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G98" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>580</v>
+        <v>130</v>
+      </c>
+      <c r="H98" s="43" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="15" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D99" s="43" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G99" s="44" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H99" s="43" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E100" s="17"/>
       <c r="F100" s="44" t="s">
@@ -8453,19 +8496,19 @@
         <v>130</v>
       </c>
       <c r="H100" s="43" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E101" s="17"/>
       <c r="F101" s="44" t="s">
@@ -8475,19 +8518,19 @@
         <v>130</v>
       </c>
       <c r="H101" s="43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D102" s="43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E102" s="17"/>
       <c r="F102" s="44" t="s">
@@ -8497,19 +8540,19 @@
         <v>130</v>
       </c>
       <c r="H102" s="43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D103" s="43" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E103" s="17"/>
       <c r="F103" s="44" t="s">
@@ -8519,85 +8562,85 @@
         <v>130</v>
       </c>
       <c r="H103" s="43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" s="43" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C104" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="D104" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39" t="s">
+      <c r="E104" s="39"/>
+      <c r="F104" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G105" s="39" t="s">
+      <c r="G104" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H105" s="38" t="s">
+      <c r="H104" s="38" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G106" s="26" t="s">
         <v>130</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26" t="s">
@@ -8607,19 +8650,19 @@
         <v>130</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26" t="s">
@@ -8629,239 +8672,239 @@
         <v>130</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G109" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E110" s="26"/>
       <c r="F110" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G111" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H112" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="C113" s="37" t="s">
+      <c r="H112" s="38" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="C114" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="D114" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39" t="s">
+      <c r="E114" s="39"/>
+      <c r="F114" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="G113" s="39" t="s">
+      <c r="G114" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="H113" s="38" t="s">
+      <c r="H114" s="38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="114" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="H114" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="15" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="26" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G115" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="15" t="s">
-        <v>516</v>
+        <v>604</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G116" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="15" t="s">
-        <v>517</v>
+        <v>605</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E117" s="24"/>
+        <v>336</v>
+      </c>
+      <c r="E117" s="26"/>
       <c r="F117" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G117" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="15" t="s">
-        <v>518</v>
+        <v>606</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E118" s="26"/>
+        <v>338</v>
+      </c>
+      <c r="E118" s="24"/>
       <c r="F118" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G118" s="26" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="15" t="s">
-        <v>519</v>
+        <v>607</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E119" s="26"/>
       <c r="F119" s="26" t="s">
@@ -8871,56 +8914,130 @@
         <v>142</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>240</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>520</v>
+        <v>608</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E120" s="26"/>
       <c r="F120" s="26" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G120" s="26" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H120" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H121" s="16" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="G123" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E124" s="26"/>
+      <c r="F124" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="G124" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059947A54AABC264B9B6A1395610EB9E4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="039196c1875697d49709999e09f36296">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="669b3db3-d5a4-4d30-a460-f1a7bf62d82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9472c2359e272d42a2ac2df94db4dd7c" ns2:_="">
     <xsd:import namespace="669b3db3-d5a4-4d30-a460-f1a7bf62d82d"/>
@@ -9064,24 +9181,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7010204-F282-4DB8-BAA4-6B407FACE274}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9097,4 +9212,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DACEA6D3-E19D-4B7E-B8E4-FC2FFCAA4342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7511AB4F-EDCE-4C8F-9114-F29EE1FED04D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>